--- a/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P62A$jubilacion-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.8906039964878117</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.628912616782738</v>
+        <v>0.6289126167827381</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7920325525406676</v>
+        <v>0.793490848121792</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7191553628909639</v>
+        <v>0.7304467346261834</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7997488530200968</v>
+        <v>0.8206832777562961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5273185941611557</v>
+        <v>0.518390814211127</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6475099884165256</v>
+        <v>0.6527117080940338</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.5715035212263959</v>
+        <v>0.5799577824555272</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7711963002674044</v>
+        <v>0.7614790801053121</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5638447621972167</v>
+        <v>0.5726955531083671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7727952769009244</v>
+        <v>0.7848366769030767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7077458899171017</v>
+        <v>0.7224636821974147</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8284507887074464</v>
+        <v>0.8288939084280327</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5712259533415562</v>
+        <v>0.569180452217605</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9342270962789563</v>
+        <v>0.937726422427884</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.913392529713832</v>
+        <v>0.9206398958065929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9452682841953146</v>
+        <v>0.9465021494926236</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6885568999448396</v>
+        <v>0.6869445255253785</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8985746855180375</v>
+        <v>0.9004852982288879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8617035896311306</v>
+        <v>0.8715326508912346</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9600232657742114</v>
+        <v>0.9600869088991045</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7440005885311338</v>
+        <v>0.7479453316595657</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9069242889457126</v>
+        <v>0.9046304363991343</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8763801145079256</v>
+        <v>0.8768344161774827</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9326527038131909</v>
+        <v>0.9372887506810416</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6946215161492673</v>
+        <v>0.6920855355484377</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8971068769621166</v>
+        <v>0.8953793598970649</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7399244608487295</v>
+        <v>0.7456267216886489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7741508232876411</v>
+        <v>0.7761025218769741</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4507094425554223</v>
+        <v>0.4573785077837119</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4035873673749427</v>
+        <v>0.4416796147283014</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2719402478810128</v>
+        <v>0.2765253739453095</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4568251025737639</v>
+        <v>0.473802448754271</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4223046793345795</v>
+        <v>0.419041182500228</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7940291809805949</v>
+        <v>0.7995133987964973</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6346071297647593</v>
+        <v>0.6401999083945769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7060433189583659</v>
+        <v>0.7118225434948613</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.463435960004168</v>
+        <v>0.4582402278768579</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9888752141425884</v>
+        <v>0.9893078057282797</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9277554483687296</v>
+        <v>0.9261824995723057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9340181941013651</v>
+        <v>0.9334762158322132</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6197528572821228</v>
+        <v>0.6195652913427201</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8182360482005738</v>
+        <v>0.8317107331054544</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6269349005808614</v>
+        <v>0.6400136621273936</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7962183362280514</v>
+        <v>0.7843877740790409</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5974910005219511</v>
+        <v>0.5985328700259628</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9346977861374697</v>
+        <v>0.9347580311854748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8178697879644884</v>
+        <v>0.8238300423519248</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8622656914107182</v>
+        <v>0.8625204309010281</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5869870787429206</v>
+        <v>0.5844246515343063</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7891173695900281</v>
+        <v>0.7887579097297264</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6974371842893883</v>
+        <v>0.6955890943334868</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7946432225953888</v>
+        <v>0.8058980398902689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3746438657863554</v>
+        <v>0.378771433535181</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5082915351160655</v>
+        <v>0.5077434527812144</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5293296715039998</v>
+        <v>0.5254348506832736</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.590386261136324</v>
+        <v>0.5825837239310396</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3247905082990607</v>
+        <v>0.3305229563119334</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7745712389649646</v>
+        <v>0.7728851126879785</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6887991018647898</v>
+        <v>0.6755753852249622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7820717659730879</v>
+        <v>0.7871310001606762</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3900247497099313</v>
+        <v>0.3911120383056628</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9124636434358353</v>
+        <v>0.9138714851336163</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.832318052096218</v>
+        <v>0.8331727860188065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9095259503288158</v>
+        <v>0.9115543263781457</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5273662036735139</v>
+        <v>0.5253702189623244</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8822634370177281</v>
+        <v>0.8959093611818291</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7790534076214729</v>
+        <v>0.7797727100718715</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8631510604146795</v>
+        <v>0.8614578083315891</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5317291334973997</v>
+        <v>0.5328658723379072</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.898900516086504</v>
+        <v>0.8954148390907976</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8049859855493162</v>
+        <v>0.7980438059256488</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8848979452934904</v>
+        <v>0.8911200739812362</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5070319465137889</v>
+        <v>0.509318274451269</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.7990215594878087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5467305478346118</v>
+        <v>0.5467305478346119</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.6854838555541006</v>
@@ -1093,7 +1093,7 @@
         <v>0.5696143511753723</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.431581541394345</v>
+        <v>0.4315815413943447</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.8645891472675287</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8877790120238073</v>
+        <v>0.8919069214703567</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6921728402900293</v>
+        <v>0.6961513147629121</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7511690029891885</v>
+        <v>0.7502630296724367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4964484881225615</v>
+        <v>0.5011299464651993</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5917365882775157</v>
+        <v>0.5991532720971094</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3400043826805744</v>
+        <v>0.3379509024613127</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4846320912569446</v>
+        <v>0.4811049848134719</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3694568415062887</v>
+        <v>0.366389641863427</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8307880118748466</v>
+        <v>0.8286099064308533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6181611841285934</v>
+        <v>0.6183604694618444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6870313398416191</v>
+        <v>0.6862613889820511</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4688713392973136</v>
+        <v>0.4750342068411521</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9434522521698201</v>
+        <v>0.9475303575836203</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7863465185756511</v>
+        <v>0.7904257452362973</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8435941476935456</v>
+        <v>0.8400204166514498</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5946741956763359</v>
+        <v>0.5984027571217614</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7641994275500267</v>
+        <v>0.7678282165352266</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5285854483790917</v>
+        <v>0.517224211800617</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6563800782775085</v>
+        <v>0.65186242431997</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4946511991315213</v>
+        <v>0.4975598900424419</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8926209495791368</v>
+        <v>0.8930555050028025</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.709037679185076</v>
+        <v>0.7115874909332618</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7717148580954493</v>
+        <v>0.7696681243422341</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5510810751957743</v>
+        <v>0.5524768892320022</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.8638121334466471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4785818768663688</v>
+        <v>0.4785818768663685</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.5403915449100393</v>
@@ -1229,7 +1229,7 @@
         <v>0.6087510931010369</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2921039863340852</v>
+        <v>0.2921039863340851</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6758437204555227</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7376377149674744</v>
+        <v>0.7468545853499218</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7100001498734466</v>
+        <v>0.7162295738967085</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8103969718919503</v>
+        <v>0.8095188578509028</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4049557900704225</v>
+        <v>0.4045107514628688</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4413785897137085</v>
+        <v>0.4324367054559266</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4828156517257698</v>
+        <v>0.4817023986414299</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5380644779745326</v>
+        <v>0.5383807110223667</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2528499580250069</v>
+        <v>0.2525881765761149</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6039800662127204</v>
+        <v>0.606258889090452</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.5961186441420023</v>
+        <v>0.5887269050530346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6855216643512911</v>
+        <v>0.6832148917582801</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3228194959779571</v>
+        <v>0.3264862208580029</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.913697916881116</v>
+        <v>0.9100461464656033</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.842135516412326</v>
+        <v>0.8459495696979884</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9070884762548682</v>
+        <v>0.9110197147080779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5496227871783663</v>
+        <v>0.5498667961275688</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6340922126988762</v>
+        <v>0.6403721577157243</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6194804856930939</v>
+        <v>0.613184343226894</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6807791079914733</v>
+        <v>0.681401035537926</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3352480679240221</v>
+        <v>0.3365313372221203</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7468517778995648</v>
+        <v>0.7401684686473944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6936541104923613</v>
+        <v>0.687382585125342</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.778674277743141</v>
+        <v>0.7776447100777534</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4053729473055065</v>
+        <v>0.4027920828913532</v>
       </c>
     </row>
     <row r="19">
@@ -1398,28 +1398,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06957530809933568</v>
+        <v>0.06702113165600196</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01219572566402609</v>
+        <v>0.01197463043275654</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01063494604849678</v>
+        <v>0.01195666265229175</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.03445162852955445</v>
+        <v>0.03280310331434626</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07297644839622092</v>
+        <v>0.07461970942357511</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01558123246206219</v>
+        <v>0.01865449738341668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01124129728116571</v>
+        <v>0.009098536451474359</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.03092621742239101</v>
+        <v>0.0329603855063666</v>
       </c>
     </row>
     <row r="21">
@@ -1430,38 +1430,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4798063195899487</v>
+        <v>0.4791442958376113</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4298975764544701</v>
+        <v>0.3799119527750049</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.2834667114982942</v>
+        <v>0.2436016401786555</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1419107823877792</v>
+        <v>0.1433408679202659</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06318213924116235</v>
+        <v>0.06009888318472167</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05464677731629716</v>
+        <v>0.05529757020730947</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09311752156611004</v>
+        <v>0.08898361758014474</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1458284648179156</v>
+        <v>0.1462811788445224</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.06653768853141469</v>
+        <v>0.06927867911939771</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05642352613186699</v>
+        <v>0.05401376982463878</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08945468371005519</v>
+        <v>0.08891072489360087</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.867763683343125</v>
+        <v>0.8657946756293191</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7353766511753486</v>
+        <v>0.7333813865700037</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8075214622146997</v>
+        <v>0.8064387424011955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.489558800128693</v>
+        <v>0.4886562633016696</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3206092152663324</v>
+        <v>0.3195363094331975</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3955175674863315</v>
+        <v>0.3945045490424981</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2897564966018601</v>
+        <v>0.2919300968975914</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6462281893191606</v>
+        <v>0.6447928351906502</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5516700602178175</v>
+        <v>0.5504145760414949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6284322228331805</v>
+        <v>0.6305005603842141</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4030323081692288</v>
+        <v>0.4004598873392587</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9118495973703507</v>
+        <v>0.9113678462581634</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7954686428695037</v>
+        <v>0.7971151885697817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8568550349748119</v>
+        <v>0.8570560261902929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5505557256239486</v>
+        <v>0.5498453937573088</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3888379883505367</v>
+        <v>0.3931208291203985</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4676284921535623</v>
+        <v>0.4734257825411461</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3399640560828527</v>
+        <v>0.3415764733065106</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6960982240406809</v>
+        <v>0.6972854576481387</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6002831130191911</v>
+        <v>0.6021117383095554</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.678063131236476</v>
+        <v>0.6786020363387802</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4426125823735146</v>
+        <v>0.4425396164794874</v>
       </c>
     </row>
     <row r="25">
@@ -1870,40 +1870,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>68956</v>
+        <v>69083</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>50373</v>
+        <v>51163</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>78519</v>
+        <v>80575</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61665</v>
+        <v>60621</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>26996</v>
+        <v>27213</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21281</v>
+        <v>21596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38276</v>
+        <v>37794</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40934</v>
+        <v>41577</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>99501</v>
+        <v>101052</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>75928</v>
+        <v>77507</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>122456</v>
+        <v>122521</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>108270</v>
+        <v>107882</v>
       </c>
     </row>
     <row r="7">
@@ -1914,40 +1914,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81336</v>
+        <v>81640</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63978</v>
+        <v>64485</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>92806</v>
+        <v>92928</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80521</v>
+        <v>80332</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37463</v>
+        <v>37543</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>32087</v>
+        <v>32453</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>47648</v>
+        <v>47651</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>54013</v>
+        <v>54299</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>116771</v>
+        <v>116476</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>94019</v>
+        <v>94068</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>137858</v>
+        <v>138543</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>131658</v>
+        <v>131177</v>
       </c>
     </row>
     <row r="8">
@@ -2050,40 +2050,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68198</v>
+        <v>68067</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>70584</v>
+        <v>71128</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>61294</v>
+        <v>61449</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52617</v>
+        <v>53396</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10437</v>
+        <v>11422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>10151</v>
+        <v>10322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16621</v>
+        <v>17238</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28973</v>
+        <v>28749</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>80896</v>
+        <v>81454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>84226</v>
+        <v>84969</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>81590</v>
+        <v>82258</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>85897</v>
+        <v>84934</v>
       </c>
     </row>
     <row r="11">
@@ -2094,40 +2094,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75174</v>
+        <v>75207</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>88501</v>
+        <v>88351</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>73952</v>
+        <v>73909</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>72352</v>
+        <v>72330</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21160</v>
+        <v>21508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>23403</v>
+        <v>23891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28969</v>
+        <v>28538</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>40991</v>
+        <v>41063</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>95227</v>
+        <v>95233</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>108549</v>
+        <v>109340</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>99643</v>
+        <v>99672</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>108797</v>
+        <v>108323</v>
       </c>
     </row>
     <row r="12">
@@ -2230,40 +2230,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>93400</v>
+        <v>93357</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>129088</v>
+        <v>128746</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>138095</v>
+        <v>140051</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>53727</v>
+        <v>54319</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10790</v>
+        <v>10778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31192</v>
+        <v>30962</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28974</v>
+        <v>28591</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18417</v>
+        <v>18742</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>108120</v>
+        <v>107885</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>168079</v>
+        <v>164852</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>174293</v>
+        <v>175420</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>78048</v>
+        <v>78265</v>
       </c>
     </row>
     <row r="15">
@@ -2274,40 +2274,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>107999</v>
+        <v>108166</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>154053</v>
+        <v>154211</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>158060</v>
+        <v>158413</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>75629</v>
+        <v>75342</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18728</v>
+        <v>19017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>45907</v>
+        <v>45950</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>42361</v>
+        <v>42278</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30151</v>
+        <v>30215</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>125475</v>
+        <v>124988</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>196430</v>
+        <v>194736</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>197208</v>
+        <v>198595</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>101462</v>
+        <v>101920</v>
       </c>
     </row>
     <row r="16">
@@ -2410,40 +2410,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>321042</v>
+        <v>322535</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>242117</v>
+        <v>243509</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>259696</v>
+        <v>259382</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>159631</v>
+        <v>161136</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66875</v>
+        <v>67713</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39385</v>
+        <v>39148</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>70063</v>
+        <v>69553</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50860</v>
+        <v>50438</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>394324</v>
+        <v>393291</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>287835</v>
+        <v>287928</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>336846</v>
+        <v>336468</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>215309</v>
+        <v>218139</v>
       </c>
     </row>
     <row r="19">
@@ -2454,40 +2454,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>341175</v>
+        <v>342650</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>275059</v>
+        <v>276485</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>291649</v>
+        <v>290414</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>191215</v>
+        <v>192413</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>86365</v>
+        <v>86775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>61230</v>
+        <v>59914</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>94893</v>
+        <v>94240</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68094</v>
+        <v>68495</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>423673</v>
+        <v>423879</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>330150</v>
+        <v>331337</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>378366</v>
+        <v>377362</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>253060</v>
+        <v>253701</v>
       </c>
     </row>
     <row r="20">
@@ -2590,40 +2590,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>61003</v>
+        <v>61765</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>108411</v>
+        <v>109363</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>156951</v>
+        <v>156781</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>61134</v>
+        <v>61067</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44648</v>
+        <v>43743</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>109387</v>
+        <v>109134</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>110955</v>
+        <v>111020</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>61271</v>
+        <v>61208</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>111045</v>
+        <v>111464</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>226079</v>
+        <v>223276</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>274128</v>
+        <v>273206</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>126961</v>
+        <v>128403</v>
       </c>
     </row>
     <row r="23">
@@ -2634,40 +2634,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>75563</v>
+        <v>75261</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>128587</v>
+        <v>129170</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>175678</v>
+        <v>176439</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82974</v>
+        <v>83011</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>64142</v>
+        <v>64777</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>140349</v>
+        <v>138923</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>140384</v>
+        <v>140512</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>81238</v>
+        <v>81549</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>137312</v>
+        <v>136084</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>263070</v>
+        <v>260691</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>311379</v>
+        <v>310967</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>159428</v>
+        <v>158413</v>
       </c>
     </row>
     <row r="24">
@@ -2780,28 +2780,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>19004</v>
+        <v>18306</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>3283</v>
+        <v>3224</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2645</v>
+        <v>2973</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7283</v>
+        <v>6934</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>20684</v>
+        <v>21150</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4446</v>
+        <v>5322</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2890</v>
+        <v>2339</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6860</v>
+        <v>7311</v>
       </c>
     </row>
     <row r="27">
@@ -2812,38 +2812,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4939</v>
+        <v>4932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6919</v>
+        <v>6115</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>2955</v>
+        <v>2540</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>38761</v>
+        <v>39152</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>17010</v>
+        <v>16180</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>13589</v>
+        <v>13751</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19684</v>
+        <v>18811</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>41332</v>
+        <v>41461</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>18984</v>
+        <v>19767</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14507</v>
+        <v>13888</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>19843</v>
+        <v>19722</v>
       </c>
     </row>
     <row r="28">
@@ -2946,40 +2946,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>638727</v>
+        <v>637278</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>639120</v>
+        <v>637386</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>725942</v>
+        <v>724969</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>421034</v>
+        <v>420258</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>238891</v>
+        <v>238092</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>290526</v>
+        <v>289782</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>228701</v>
+        <v>230416</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>847946</v>
+        <v>846063</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>890518</v>
+        <v>888491</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1026558</v>
+        <v>1029937</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>664727</v>
+        <v>660484</v>
       </c>
     </row>
     <row r="31">
@@ -2990,40 +2990,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>671177</v>
+        <v>670822</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>691347</v>
+        <v>692778</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>770292</v>
+        <v>770473</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>473493</v>
+        <v>472882</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>289729</v>
+        <v>292921</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>343495</v>
+        <v>347753</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>268329</v>
+        <v>269602</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>913383</v>
+        <v>914941</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>968990</v>
+        <v>971942</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1107632</v>
+        <v>1108512</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>730007</v>
+        <v>729887</v>
       </c>
     </row>
     <row r="32">
